--- a/sourdough_recipes.xlsx
+++ b/sourdough_recipes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="160" windowWidth="20540" windowHeight="16700" tabRatio="500" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20540" windowHeight="16700" tabRatio="500" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="50%WholeWheat1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Chad_10_spelt" sheetId="13" r:id="rId13"/>
     <sheet name="FestiveSourdoughGata" sheetId="14" r:id="rId14"/>
     <sheet name="WhiteWildYeastFavorite" sheetId="15" r:id="rId15"/>
+    <sheet name="SoftSanwichSourdough" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="256">
   <si>
     <t>Try 3</t>
   </si>
@@ -798,6 +799,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>http://www.wildyeastblog.com/soft-sandwich-sourdough/</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1885,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:O28"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2273,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:H17"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2433,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I25"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2662,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F22"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2928,7 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3064,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3277,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3505,6 +3509,31 @@
       </c>
       <c r="F11" s="1">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3551,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3730,7 +3759,9 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -3899,7 +3930,7 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -3999,7 +4030,7 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F15"/>
     </sheetView>
   </sheetViews>
@@ -4280,7 +4311,7 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4362,7 +4393,7 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4381,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4649,7 +4680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:L25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>

--- a/sourdough_recipes.xlsx
+++ b/sourdough_recipes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20540" windowHeight="16700" tabRatio="500" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20540" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="50%WholeWheat1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,15 @@
     <sheet name="white sourdough boule" sheetId="4" r:id="rId4"/>
     <sheet name="GF briouche" sheetId="5" r:id="rId5"/>
     <sheet name="good_kulich" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Exper_GF_sourdough" sheetId="8" r:id="rId8"/>
-    <sheet name="lavash1" sheetId="9" r:id="rId9"/>
-    <sheet name="tartineMotherMethod" sheetId="10" r:id="rId10"/>
-    <sheet name="GF Coissant 2" sheetId="11" r:id="rId11"/>
-    <sheet name="GF dark bread" sheetId="12" r:id="rId12"/>
-    <sheet name="Chad_10_spelt" sheetId="13" r:id="rId13"/>
-    <sheet name="FestiveSourdoughGata" sheetId="14" r:id="rId14"/>
-    <sheet name="WhiteWildYeastFavorite" sheetId="15" r:id="rId15"/>
-    <sheet name="SoftSanwichSourdough" sheetId="16" r:id="rId16"/>
+    <sheet name="Exper_GF_sourdough" sheetId="8" r:id="rId7"/>
+    <sheet name="lavash1" sheetId="9" r:id="rId8"/>
+    <sheet name="tartineMotherMethod" sheetId="10" r:id="rId9"/>
+    <sheet name="GF Coissant 2" sheetId="11" r:id="rId10"/>
+    <sheet name="GF dark bread" sheetId="12" r:id="rId11"/>
+    <sheet name="Chad_10_spelt" sheetId="13" r:id="rId12"/>
+    <sheet name="FestiveSourdoughGata" sheetId="14" r:id="rId13"/>
+    <sheet name="WhiteWildYeastFavorite" sheetId="15" r:id="rId14"/>
+    <sheet name="SoftSanwichSourdough" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -814,6 +813,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1885,7 +1885,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2275,166 +2275,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.5" defaultRowHeight="28" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="38.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="1">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="1">
-        <v>70</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I25"/>
   <sheetViews>
     <sheetView topLeftCell="B14" workbookViewId="0">
@@ -2662,7 +2502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F22"/>
   <sheetViews>
@@ -2928,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
@@ -3064,7 +2904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3277,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -3521,11 +3361,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4312,7 +4152,7 @@
   <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4389,26 +4229,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I19"/>
   <sheetViews>
@@ -4676,7 +4496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:L25"/>
   <sheetViews>
@@ -4935,4 +4755,164 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.5" defaultRowHeight="28" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="38.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>